--- a/practicas/03-Atomicidad/Pr3.xlsx
+++ b/practicas/03-Atomicidad/Pr3.xlsx
@@ -1,417 +1,476 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ej1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ej2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Ej3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Ej4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Ej5" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Ej6" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Ej7" sheetId="7" r:id="rId10"/>
+    <sheet name="Ej1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Ej2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Ej3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Ej4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Ej5" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Ej6" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Ej7" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="111">
   <si>
-    <t>x empieza en 0</t>
-  </si>
-  <si>
-    <t>a)</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>x + 1</t>
-  </si>
-  <si>
-    <t>T1.r = 1</t>
-  </si>
-  <si>
-    <t>x + 2</t>
-  </si>
-  <si>
-    <t>T2.r = 2</t>
-  </si>
-  <si>
-    <t>x + 3</t>
-  </si>
-  <si>
-    <t>T3.r = 3</t>
-  </si>
-  <si>
-    <t>x = x + 3;</t>
-  </si>
-  <si>
-    <t>x = 3</t>
-  </si>
-  <si>
-    <t>x = x + 2;</t>
-  </si>
-  <si>
-    <t>x = 2</t>
-  </si>
-  <si>
-    <t>x = x + 1;</t>
-  </si>
-  <si>
-    <t>x = 1</t>
-  </si>
-  <si>
-    <t>X puede valer 1, 2 o 3 si se pierde las sumas.</t>
-  </si>
-  <si>
-    <t>Tambien puede valer 6 y 5</t>
-  </si>
-  <si>
-    <t>b)</t>
-  </si>
-  <si>
-    <t>La seccion critica es la toma de variable de x, la suma el problema se da cuando al menos 2 threads pasan el while</t>
-  </si>
-  <si>
-    <t>entrar()</t>
-  </si>
-  <si>
-    <t>Entra</t>
-  </si>
-  <si>
-    <t>if (ocupado)</t>
-  </si>
-  <si>
-    <t>No entra</t>
-  </si>
-  <si>
-    <t>ocupado = true</t>
-  </si>
-  <si>
-    <t>T1.ocupado = true</t>
-  </si>
-  <si>
-    <t>T2.ocupado = true</t>
-  </si>
-  <si>
-    <t>return false</t>
-  </si>
-  <si>
-    <t>while(entrar())</t>
-  </si>
-  <si>
-    <t>No sigue iterando</t>
-  </si>
-  <si>
-    <t>x = x + 1</t>
-  </si>
-  <si>
-    <t>// SC</t>
-  </si>
-  <si>
-    <t>x = x + 2</t>
-  </si>
-  <si>
-    <t>No cumple mutex, ya que ambos Threads estan en la seccion critica... ademas se pierde sumas</t>
-  </si>
-  <si>
-    <t>c) Si entrar() y salir() son atomicas cumplen mutex y garantia de entrada ya que no va haber mas de 1 thread en la seccion de x y tambien todos los threads van a llegar a la SC</t>
-  </si>
-  <si>
-    <t>miTurno = PedirTurno()</t>
-  </si>
-  <si>
-    <t>turno = turnos</t>
-  </si>
-  <si>
-    <t>turno = 0</t>
-  </si>
-  <si>
-    <t>turnos = turnos + 1</t>
-  </si>
-  <si>
-    <t>T1.r = 0</t>
-  </si>
-  <si>
-    <t>turnos = T1.r + 1 = 1</t>
-  </si>
-  <si>
-    <t>T2.r = 1</t>
-  </si>
-  <si>
-    <t>turnos = T2.r + 1 = 1</t>
-  </si>
-  <si>
-    <t>while(actual != miTurno)</t>
-  </si>
-  <si>
-    <t>//SC</t>
-  </si>
-  <si>
-    <t>while(!flag[0])</t>
-  </si>
-  <si>
-    <t>tomarFlag(0,1)</t>
-  </si>
-  <si>
-    <t>flags[mia] = !flags[otro]</t>
-  </si>
-  <si>
-    <t>flags[mia] = true</t>
-  </si>
-  <si>
-    <t>No cumple exclusion mutua</t>
-  </si>
-  <si>
-    <t>Al ser atomica tampoco sirve porque ambos van a quedar en SC, ya que tomarFlag solo cambia el estado del mio, es decir ambos salen del while -------- PENSAR MEJOR</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>local = new Ref(true)</t>
-  </si>
-  <si>
-    <t>T1.local = true</t>
-  </si>
-  <si>
-    <t>T2.local = true</t>
-  </si>
-  <si>
-    <t>T3.local = true</t>
-  </si>
-  <si>
-    <t>T4.local = true</t>
-  </si>
-  <si>
-    <t>Exchange ( shared , local );</t>
+    <t xml:space="preserve">x empieza en 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1.r = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2.r = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x + 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3.r = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = x + 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = x + 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = x + 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X puede valer 1, 2 o 3 si se pierde las sumas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambien puede valer 6 y 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La seccion critica es la toma de variable de x, la suma el problema se da cuando al menos 2 threads pasan el while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrar()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (ocupado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No entra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocupado = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1.ocupado = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2.ocupado = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(entrar())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sigue iterando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = x + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = x + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple mutex, ya que ambos Threads estan en la seccion critica... ademas se pierde sumas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c) Si entrar() y salir() son atomicas cumplen mutex y garantia de entrada ya que no va haber mas de 1 thread en la seccion de x y tambien todos los threads van a llegar a la SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miTurno = PedirTurno()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turno = turnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turno = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turnos = turnos + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1.r = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turnos = T1.r + 1 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2.r = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turnos = T2.r + 1 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(actual != miTurno)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(!flag[0])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomarFlag(0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags[mia] = !flags[otro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags[mia] = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple exclusion mutua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ser atomica tampoco sirve porque ambos van a quedar en SC, ya que tomarFlag solo cambia el estado, necesita otra espera en este caso si ambos entran al while al mismo tiempo y hacen tomarFlag no pasa nada distinto, el siguiente paso es la //SC para ambos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local = new Ref(true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1.local = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2.local = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3.local = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4.local = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange ( shared , local );</t>
   </si>
   <si>
     <t xml:space="preserve">shared = true, T1.local = false </t>
   </si>
   <si>
-    <t>shared = false, T2.local = true</t>
-  </si>
-  <si>
-    <t>shared = true, T2.local = false</t>
-  </si>
-  <si>
-    <t>shared = false, T4.local = true</t>
-  </si>
-  <si>
-    <t>while ( local . value );</t>
-  </si>
-  <si>
-    <t>while(false) =&gt; Sale del while</t>
-  </si>
-  <si>
-    <t>while(true) =&gt; Sigue en el while</t>
-  </si>
-  <si>
-    <t>Entra T1. //SC</t>
-  </si>
-  <si>
-    <t>Entra T3. //SC</t>
-  </si>
-  <si>
-    <t>No resuelve el problema porque no cumple exclusion mutea, T1 y T3 entran al mismo tiempo a SC.</t>
-  </si>
-  <si>
-    <t>Puede darse starvating si siguen llegando threads y cambian el estado a true la variable local del thread que espera</t>
-  </si>
-  <si>
-    <t>int myTurn = getTurn ();</t>
-  </si>
-  <si>
-    <t>Entra getTurn()</t>
-  </si>
-  <si>
-    <t>ticket = ticket + 1</t>
-  </si>
-  <si>
-    <t>T2.r = 0</t>
-  </si>
-  <si>
-    <t>ticket = r + 1</t>
-  </si>
-  <si>
-    <t>ticket = 1</t>
-  </si>
-  <si>
-    <t>myTurn = 0 (Devuelve primero el valor de ticket despues suma)</t>
-  </si>
-  <si>
-    <t>while ( myTurn != turn );</t>
-  </si>
-  <si>
-    <t>while(false= =&gt; Sale del while</t>
-  </si>
-  <si>
-    <t>No cumple exclusion mutua porque ambos threas entran a la SC al mismo tiempo, ademas hay perdida de suma.</t>
-  </si>
-  <si>
-    <t>T1.myTurn = 0</t>
-  </si>
-  <si>
-    <t>T2.myTurn = 1</t>
-  </si>
-  <si>
-    <t>while(true) =&gt; Entra al while</t>
-  </si>
-  <si>
-    <t>releaseTurn ();</t>
-  </si>
-  <si>
-    <t>turn = 1</t>
-  </si>
-  <si>
-    <t>Esto cumple ya que no hay forma de alterar el valor de ticket y tener perdida de sumas</t>
-  </si>
-  <si>
-    <t>c) Si hay una cant no acotada de threads tambien cumpliria ya que cada thread va a tener su turno asignado, y en</t>
-  </si>
-  <si>
-    <t>algun momento saldra de la SC dandole posibilidad de entrar al siguiente Thread, tampoco se generara starvation</t>
-  </si>
-  <si>
-    <t>ya que todos van a poder entrar tarde o temprano.</t>
-  </si>
-  <si>
-    <t>d)</t>
-  </si>
-  <si>
-    <t>Va a llegar un punto que si hay mas de 255 thread se va a pasar del rango de 256 y empezara desde 0...</t>
-  </si>
-  <si>
-    <t>Podria haber problemas para la asignacion de turnos.</t>
-  </si>
-  <si>
-    <t>id = 1</t>
+    <t xml:space="preserve">shared = false, T2.local = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shared = true, T2.local = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shared = false, T4.local = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while ( local . value );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(false) =&gt; Sale del while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(true) =&gt; Sigue en el while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra T1. //SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra T3. //SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No resuelve el problema porque no cumple exclusion mutea, T1 y T3 entran al mismo tiempo a SC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puede darse starvating si siguen llegando threads y cambian el estado a true la variable local del thread que espera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int myTurn = getTurn ();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra getTurn()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticket = ticket + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2.r = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticket = r + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticket = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myTurn = 0 (Devuelve primero el valor de ticket despues suma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while ( myTurn != turn );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(false= =&gt; Sale del while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple exclusion mutua porque ambos threas entran a la SC al mismo tiempo, ademas hay perdida de suma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1.myTurn = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2.myTurn = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(true) =&gt; Entra al while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">releaseTurn ();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esto cumple ya que no hay forma de alterar el valor de ticket y tener perdida de sumas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c) Si hay una cant no acotada de threads tambien cumpliria ya que cada thread va a tener su turno asignado, y en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algun momento saldra de la SC dandole posibilidad de entrar al siguiente Thread, tampoco se generara starvation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ya que todos van a poder entrar tarde o temprano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Va a llegar un punto que si hay mas de 255 thread se va a pasar del rango de 256 y empezara desde 0...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podria haber problemas para la asignacion de turnos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id = 1</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>T1.id</t>
+      <t xml:space="preserve">T1.id</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = 1</t>
     </r>
   </si>
   <si>
-    <t>id = 2</t>
+    <t xml:space="preserve">id = 2</t>
   </si>
   <si>
     <r>
       <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>T2.id</t>
+      <t xml:space="preserve">T2.id</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = 1</t>
     </r>
   </si>
   <si>
-    <t>id = 3</t>
+    <t xml:space="preserve">id = 3</t>
   </si>
   <si>
     <r>
       <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>T3.id</t>
+      <t xml:space="preserve">T3.id</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = 1</t>
     </r>
   </si>
   <si>
-    <t>push ( queue , id );</t>
-  </si>
-  <si>
-    <t>queue =[1]</t>
-  </si>
-  <si>
-    <t>queue =[1,3]</t>
-  </si>
-  <si>
-    <t>queue =[1,3,2]</t>
-  </si>
-  <si>
-    <t>while ( id != peek ( queue ));</t>
-  </si>
-  <si>
-    <t>while(true) =&gt; Entra while</t>
-  </si>
-  <si>
-    <t>pop ( queue );</t>
-  </si>
-  <si>
-    <t>queue =[3,2]</t>
-  </si>
-  <si>
-    <t>queue =[2]</t>
-  </si>
-  <si>
-    <t>queue =[]</t>
-  </si>
-  <si>
-    <t>Cumple mutex, tanto expclusion mutua (es decir no hay mas de 1 thread en la SC) y cumple garantia de entrada</t>
-  </si>
-  <si>
-    <t>Tarde o temprano el thread llegara a la SC</t>
+    <t xml:space="preserve">push ( queue , id );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue =[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue =[1,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue =[1,3,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while ( id != peek ( queue ));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(true) =&gt; Entra while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop ( queue );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue =[3,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue =[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queue =[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumple mutex, tanto expclusion mutua (es decir no hay mas de 1 thread en la SC) y cumple garantia de entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarde o temprano el thread llegara a la SC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -419,92 +478,99 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,94 +581,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -610,33 +672,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -649,13 +702,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -665,15 +712,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -681,7 +726,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -689,11 +733,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -702,27 +746,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="44.5"/>
-    <col customWidth="1" min="4" max="4" width="39.25"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -739,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -749,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -759,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
@@ -769,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
@@ -779,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -789,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -799,47 +846,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -847,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -861,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -871,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -881,7 +928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
@@ -891,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -901,7 +948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -911,7 +958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -921,14 +968,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
         <v>29</v>
@@ -936,7 +983,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
@@ -946,7 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -956,7 +1003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
@@ -966,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -976,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
@@ -989,7 +1036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
         <v>34</v>
@@ -1002,38 +1049,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="44.5"/>
-    <col customWidth="1" min="4" max="4" width="39.25"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1101,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1055,7 +1111,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>37</v>
@@ -1065,7 +1121,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1131,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>38</v>
@@ -1085,7 +1141,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1151,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
@@ -1105,7 +1161,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
         <v>40</v>
@@ -1114,7 +1170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>40</v>
@@ -1123,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
         <v>45</v>
@@ -1141,111 +1197,120 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="44.5"/>
-    <col customWidth="1" min="4" max="4" width="39.25"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +1322,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1267,7 +1332,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1275,7 +1340,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -1285,7 +1350,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -1293,7 +1358,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
@@ -1303,7 +1368,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>49</v>
@@ -1313,27 +1378,27 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,94 +1406,103 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="36.88"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="24.0"/>
-    <col customWidth="1" min="6" max="6" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1454,7 +1528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>54</v>
@@ -1463,7 +1537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
@@ -1472,7 +1546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1480,7 +1554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1489,7 +1563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>59</v>
@@ -1499,7 +1573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -1509,7 +1583,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1517,7 +1591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1526,7 +1600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
@@ -1534,7 +1608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
@@ -1550,7 +1624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1558,7 +1632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1566,12 +1640,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -1580,93 +1654,102 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="36.88"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="24.0"/>
-    <col customWidth="1" min="6" max="6" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1677,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1685,7 +1768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
@@ -1693,7 +1776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1701,7 +1784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
@@ -1709,7 +1792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -1717,7 +1800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1725,7 +1808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1733,7 +1816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -1741,12 +1824,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -1754,7 +1837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
         <v>78</v>
       </c>
@@ -1762,22 +1845,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1790,7 +1873,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1800,7 +1883,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1809,7 +1892,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1820,7 +1903,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +1916,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -1843,7 +1926,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -1852,89 +1935,98 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="26.25"/>
-    <col customWidth="1" min="3" max="3" width="22.88"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="24.0"/>
-    <col customWidth="1" min="6" max="6" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1948,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -1956,7 +2048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
@@ -1964,7 +2056,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>97</v>
       </c>
@@ -1972,7 +2064,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -1980,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
         <v>99</v>
       </c>
@@ -1988,7 +2080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
@@ -1996,7 +2088,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -2004,7 +2096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2012,7 +2104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>103</v>
@@ -2021,12 +2113,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -2034,7 +2126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>103</v>
@@ -2043,12 +2135,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
         <v>105</v>
       </c>
@@ -2056,17 +2148,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2074,40 +2166,49 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="26.25"/>
-    <col customWidth="1" min="3" max="3" width="22.88"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="24.0"/>
-    <col customWidth="1" min="6" max="6" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2115,22 +2216,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="7"/>
-    </row>
-    <row r="10">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>